--- a/صيدليات دكتور مصطفي طلعت_2026-01-17_21-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-17_21-21.xlsx
@@ -380,9 +380,6 @@
     <t>VOLTAREN 75MG/3ML 3 AMP.</t>
   </si>
   <si>
-    <t>8:1</t>
-  </si>
-  <si>
     <t>VOLTAREN SR 100MG 20 F.C.TAB.</t>
   </si>
   <si>
@@ -425,7 +422,7 @@
     <t>-1:0</t>
   </si>
   <si>
-    <t>104:0</t>
+    <t>105:0</t>
   </si>
   <si>
     <t>سرنجات 5 سم</t>
@@ -3273,17 +3270,17 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
-        <v>9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="90" ht="25.5" customHeight="1">
@@ -3291,7 +3288,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3317,7 +3314,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3325,7 +3322,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -3343,7 +3340,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3369,7 +3366,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3395,7 +3392,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3421,7 +3418,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3429,7 +3426,7 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -3447,7 +3444,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3473,7 +3470,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3499,7 +3496,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3507,7 +3504,7 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
@@ -3525,7 +3522,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3533,17 +3530,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3551,7 +3548,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3559,7 +3556,7 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
@@ -3569,7 +3566,7 @@
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3577,7 +3574,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3585,7 +3582,7 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
@@ -3603,7 +3600,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3629,7 +3626,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3655,7 +3652,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3681,7 +3678,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3707,7 +3704,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3733,7 +3730,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3759,7 +3756,7 @@
         <v>105</v>
       </c>
       <c t="s" r="B108" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -3785,7 +3782,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3811,7 +3808,7 @@
         <v>107</v>
       </c>
       <c t="s" r="B110" s="7">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -3837,7 +3834,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3845,7 +3842,7 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
@@ -3860,7 +3857,7 @@
     </row>
     <row r="112" ht="26.25" customHeight="1">
       <c r="K112" s="10">
-        <v>8440.4799999999996</v>
+        <v>8459.4799999999996</v>
       </c>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
@@ -3868,19 +3865,19 @@
     </row>
     <row r="113" ht="16.5" customHeight="1">
       <c t="s" r="A113" s="11">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="11"/>
       <c r="E113" s="11"/>
       <c t="s" r="F113" s="12">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G113" s="12"/>
       <c r="H113" s="13"/>
       <c t="s" r="I113" s="14">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J113" s="14"/>
       <c r="K113" s="14"/>
